--- a/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_mixing_tables_pH70_15C.xlsx
+++ b/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_mixing_tables_pH70_15C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24519"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ken\Lab\Protocols\Auckland\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinminton/Documents/GitHub/Protocols/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe &amp; Mixing Table Printouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3897BFC96A3721FA71A9E13E31439035B8D7037B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC726393-13FD-6543-AB02-DFFD5C5E2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="6780" windowWidth="29080" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mixing Chart " sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <numFmt numFmtId="168" formatCode="0.0000"/>
     <numFmt numFmtId="169" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,11 +172,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -186,6 +201,11 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -469,536 +489,552 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="9" width="6.625" customWidth="1"/>
-    <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="14" width="6.625" customWidth="1"/>
-    <col min="15" max="15" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" customWidth="1"/>
+    <col min="11" max="14" width="6.6640625" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="10">
         <v>90</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="10">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A3" s="2">
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
         <v>6.4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="11">
         <v>0.56166899999999997</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="11">
         <v>0.43833100000000003</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <v>25</v>
       </c>
-      <c r="F3" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="12">
         <v>21.062587499999999</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="H3" s="12"/>
+      <c r="I3" s="12">
         <v>7.0208624999999998</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="12">
         <v>16.437412500000001</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="12">
         <v>8.2187062500000003</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12">
         <v>37.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
         <v>6.2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <v>0.446017</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
         <v>0.553983</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
         <v>30</v>
       </c>
-      <c r="F4" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G4" s="12">
         <v>20.070765000000002</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>6.6902549999999996</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="12">
         <v>24.929234999999998</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12">
         <v>8.3097449999999995</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
         <v>6.1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="11">
         <v>0.38964599999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>0.61035399999999995</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
         <v>25</v>
       </c>
-      <c r="F5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="12">
         <v>14.611725</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="12">
         <v>7.3058624999999999</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12">
         <v>22.888275</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3">
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
         <v>7.6294250000000003</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3">
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>37.5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>0.33613300000000002</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="11">
         <v>0.66386699999999998</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="12">
         <v>15.125985</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="12">
         <v>7.5629925</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12">
         <v>29.874015</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="K6" s="12"/>
+      <c r="L6" s="12">
         <v>9.958005</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A7" s="2">
+    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>5.9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <v>0.28656500000000001</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="11">
         <v>0.71343500000000004</v>
       </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>30</v>
       </c>
-      <c r="F7" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="12">
         <v>12.895424999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>6.4477124999999997</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3">
+      <c r="I7" s="12"/>
+      <c r="J7" s="12">
         <v>32.104574999999997</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <v>8.0261437499999992</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A8" s="2">
+    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
         <v>5.8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>0.24166499999999999</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <v>0.75833499999999998</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
         <v>30</v>
       </c>
-      <c r="F8" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="12">
         <v>10.874924999999999</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <v>5.4374624999999996</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12">
         <v>34.125075000000002</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12">
         <v>8.5312687500000006</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A9" s="2">
+    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>5.7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="11">
         <v>0.201791</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="11">
         <v>0.79820899999999995</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G9" s="12">
         <v>9.0805950000000006</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12">
         <v>35.919404999999998</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3">
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
         <v>8.9798512499999994</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A10" s="2">
+    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
         <v>5.6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <v>0.16697100000000001</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="11">
         <v>0.83302900000000002</v>
       </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
         <v>30</v>
       </c>
-      <c r="F10" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="12">
         <v>7.5136950000000002</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12">
         <v>37.486305000000002</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>9.3715762500000004</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A11" s="2">
+    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
         <v>5.5</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <v>0.13697899999999999</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="11">
         <v>0.86302100000000004</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>15</v>
       </c>
-      <c r="F11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="12">
         <v>3.0820275000000001</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12">
         <v>19.417972500000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="12">
         <v>9.7089862500000006</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3">
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <v>22.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A12" s="2">
+    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
         <v>5.4</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>0.111413</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="11">
         <v>0.88858700000000002</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="12">
         <v>5.013585</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12">
         <v>39.986415000000001</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3">
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12">
         <v>9.9966037500000002</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="N12" s="12"/>
+      <c r="O12" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A13" s="2">
+    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>5.2</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="11">
         <v>7.1514999999999995E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="11">
         <v>0.928485</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>30</v>
       </c>
-      <c r="F13" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G13" s="12">
         <v>3.218175</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12">
         <v>41.781824999999998</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3">
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12">
         <v>8.3563650000000003</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="11">
         <v>4.3035400000000001E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="11">
         <v>0.95696499999999995</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>1.0000004</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>30</v>
       </c>
-      <c r="F14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="G14" s="12">
         <v>1.936593</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12">
         <v>43.063425000000002</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12">
         <v>8.6126850000000008</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="12">
         <v>45.000017999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1">
-      <c r="F15" t="s">
+    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="13">
         <v>124.48608299999999</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4">
+      <c r="J15" s="13">
         <v>378.013935</v>
       </c>
       <c r="K15" s="4"/>
@@ -1006,16 +1042,16 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1">
-      <c r="F16" t="s">
+    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="13">
         <v>125.51391700000001</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4">
+      <c r="J16" s="13">
         <v>121.986065</v>
       </c>
       <c r="K16" s="4"/>
@@ -1023,16 +1059,16 @@
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="6:14" ht="12.75" customHeight="1">
-      <c r="F17" t="s">
+    <row r="17" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="10">
         <v>27.891981555555599</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="1">
+      <c r="J17" s="10">
         <v>27.1080144444444</v>
       </c>
       <c r="K17" s="4"/>
@@ -1040,20 +1076,20 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="6:14" ht="12.75" customHeight="1"/>
-    <row r="19" spans="6:14" ht="12.75" customHeight="1"/>
-    <row r="20" spans="6:14" ht="12.75" customHeight="1">
-      <c r="G20" t="s">
+    <row r="18" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="6:14" ht="12.75" customHeight="1"/>
-    <row r="22" spans="6:14" ht="12.75" customHeight="1"/>
-    <row r="23" spans="6:14" ht="12.75" customHeight="1">
-      <c r="G23" s="2">
+    <row r="21" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="11">
         <v>124.48608299999999</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="12">
         <v>378.013935</v>
       </c>
     </row>
@@ -1068,28 +1104,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1">
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1142,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -1129,7 +1165,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>5.9</v>
       </c>
@@ -1152,7 +1188,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5.8</v>
       </c>
@@ -1175,7 +1211,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5.7</v>
       </c>
@@ -1198,7 +1234,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>5.6</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>5.5</v>
       </c>
@@ -1244,7 +1280,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>5.4</v>
       </c>
@@ -1267,7 +1303,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>5.3</v>
       </c>
@@ -1290,7 +1326,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>5.2</v>
       </c>
@@ -1313,7 +1349,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -1359,7 +1395,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>4.8</v>
       </c>
@@ -1405,7 +1441,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>4.7</v>
       </c>
@@ -1428,7 +1464,7 @@
         <v>1.5000005999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -1451,7 +1487,7 @@
         <v>1.49999949</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>16.847154</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1474,29 +1510,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" customHeight="1">
+    <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.7</v>
       </c>
@@ -1536,7 +1572,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.6</v>
       </c>
@@ -1581,7 +1617,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.5</v>
       </c>
@@ -1628,7 +1664,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12.75" customHeight="1">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.4</v>
       </c>
@@ -1675,7 +1711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12.75" customHeight="1">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.3</v>
       </c>
@@ -1722,7 +1758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12.75" customHeight="1">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.2</v>
       </c>
@@ -1769,7 +1805,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.1</v>
       </c>
@@ -1816,7 +1852,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -1845,7 +1881,7 @@
         <v>7.2317729999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>5.9</v>
       </c>
@@ -1874,7 +1910,7 @@
         <v>1.60706066666667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12.75" customHeight="1">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>5.8</v>
       </c>
@@ -1897,7 +1933,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="12.75" customHeight="1">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.7</v>
       </c>
@@ -1920,7 +1956,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="12.75" customHeight="1">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.6</v>
       </c>
@@ -1943,7 +1979,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.5</v>
       </c>
@@ -1966,7 +2002,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.4</v>
       </c>
@@ -1989,7 +2025,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.3</v>
       </c>
@@ -2012,7 +2048,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.2</v>
       </c>
@@ -2035,7 +2071,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -2058,7 +2094,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -2081,7 +2117,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -2104,7 +2140,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>4.8</v>
       </c>
@@ -2138,24 +2174,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="7" width="8.875" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="12" width="8" customWidth="1"/>
     <col min="13" max="15" width="12.5" customWidth="1"/>
     <col min="16" max="19" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1">
+    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="12.75" customHeight="1">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="12.75" customHeight="1">
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -2255,7 +2291,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="12.75" customHeight="1">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -2311,7 +2347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -2367,7 +2403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="12.75" customHeight="1">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -2423,7 +2459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="12.75" customHeight="1">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -2479,7 +2515,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="12.75" customHeight="1">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -2535,7 +2571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="12.75" customHeight="1">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -2591,7 +2627,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="12.75" customHeight="1">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -2647,7 +2683,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="12.75" customHeight="1">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -2703,7 +2739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="12.75" customHeight="1">
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -2759,7 +2795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="12.75" customHeight="1">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -2815,7 +2851,7 @@
         <v>30.000012000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="12.75" customHeight="1">
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -2847,7 +2883,7 @@
         <v>393.89364</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="12.75" customHeight="1">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -2879,7 +2915,7 @@
         <v>106.10636</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="12.75" customHeight="1">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -2911,7 +2947,7 @@
         <v>70.737573333333302</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -2934,7 +2970,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -2957,7 +2993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -2980,7 +3016,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -3003,7 +3039,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -3026,7 +3062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -3049,7 +3085,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -3072,7 +3108,7 @@
         <v>1.5000005999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -3095,7 +3131,7 @@
         <v>1.5000007500000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -3118,7 +3154,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -3141,7 +3177,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -3175,25 +3211,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3210,7 +3246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -3233,7 +3269,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -3256,7 +3292,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -3279,7 +3315,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -3302,7 +3338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -3325,7 +3361,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -3348,7 +3384,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -3371,7 +3407,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -3394,7 +3430,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -3417,7 +3453,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -3440,7 +3476,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -3463,7 +3499,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -3486,7 +3522,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -3509,7 +3545,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -3532,7 +3568,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1">
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -3555,7 +3591,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="12.75" customHeight="1">
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -3578,7 +3614,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="12.75" customHeight="1">
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -3601,7 +3637,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1">
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -3624,7 +3660,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -3647,7 +3683,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -3670,7 +3706,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -3693,7 +3729,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -3716,7 +3752,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -3739,7 +3775,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -3762,7 +3798,7 @@
         <v>1.5000005999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -3785,9 +3821,9 @@
         <v>1.49999967</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
         <v>6</v>
       </c>
@@ -3798,7 +3834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>5.2</v>
       </c>
@@ -3824,7 +3860,7 @@
         <v>2.9999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>5.6</v>
       </c>
@@ -3850,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>5.7</v>
       </c>
@@ -3876,7 +3912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>5.8</v>
       </c>
@@ -3902,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>5.9</v>
       </c>
@@ -3928,7 +3964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>6</v>
       </c>
@@ -3957,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>6.2</v>
       </c>
@@ -3986,7 +4022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>19</v>
       </c>
@@ -4000,7 +4036,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>17</v>
       </c>
@@ -4022,24 +4058,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4056,7 +4092,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -4079,7 +4115,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -4102,7 +4138,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -4125,7 +4161,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -4148,7 +4184,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -4171,7 +4207,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -4194,7 +4230,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -4217,7 +4253,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -4240,7 +4276,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -4263,7 +4299,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -4286,7 +4322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -4309,7 +4345,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -4332,7 +4368,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -4355,7 +4391,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -4378,7 +4414,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -4401,7 +4437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -4424,7 +4460,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -4447,7 +4483,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -4470,7 +4506,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -4493,7 +4529,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -4516,7 +4552,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -4539,7 +4575,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -4562,7 +4598,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -4585,7 +4621,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -4608,7 +4644,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -4631,11 +4667,11 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6.2</v>
       </c>
@@ -4658,7 +4694,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -4681,7 +4717,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>5.8</v>
       </c>
@@ -4707,7 +4743,7 @@
         <v>0.56684625</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>5.7</v>
       </c>
@@ -4733,7 +4769,7 @@
         <v>0.59653049999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>5.6</v>
       </c>
@@ -4759,7 +4795,7 @@
         <v>0.62241449999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>5.4</v>
       </c>
@@ -4785,7 +4821,7 @@
         <v>0.66373950000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -4811,7 +4847,7 @@
         <v>0.71550599999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>19</v>
       </c>
@@ -4825,7 +4861,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>17</v>
       </c>
@@ -4847,23 +4883,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4880,7 +4916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -4903,7 +4939,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -4926,7 +4962,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -4949,7 +4985,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -4972,7 +5008,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -4995,7 +5031,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -5018,7 +5054,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -5041,7 +5077,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -5064,7 +5100,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -5087,7 +5123,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -5110,7 +5146,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -5133,7 +5169,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -5156,7 +5192,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -5179,7 +5215,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -5202,7 +5238,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -5225,7 +5261,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -5248,7 +5284,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -5271,7 +5307,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -5294,7 +5330,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -5317,7 +5353,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -5340,7 +5376,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -5363,7 +5399,7 @@
         <v>1.5000004499999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -5386,7 +5422,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -5409,7 +5445,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -5432,7 +5468,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -5455,10 +5491,10 @@
         <v>1.50000048</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>6.4</v>
       </c>
@@ -5481,7 +5517,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1">
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6.2</v>
       </c>
@@ -5504,7 +5540,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>6</v>
       </c>
@@ -5527,7 +5563,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>5.8</v>
       </c>
@@ -5553,7 +5589,7 @@
         <v>0.56351024999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>5.7</v>
       </c>
@@ -5579,7 +5615,7 @@
         <v>0.59310974999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>5.6</v>
       </c>
@@ -5605,7 +5641,7 @@
         <v>0.61899674999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>5.4</v>
       </c>
@@ -5631,7 +5667,7 @@
         <v>0.66050699999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>5</v>
       </c>
@@ -5657,7 +5693,7 @@
         <v>0.71295825000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
         <v>19</v>
       </c>
@@ -5671,7 +5707,7 @@
         <v>10.50000045</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
         <v>17</v>
       </c>
@@ -5693,24 +5729,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5727,7 +5763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -5750,7 +5786,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -5773,7 +5809,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -5796,7 +5832,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -5819,7 +5855,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -5842,7 +5878,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -5865,7 +5901,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -5888,7 +5924,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -5911,7 +5947,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -5934,7 +5970,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -5957,7 +5993,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -5980,7 +6016,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -6003,7 +6039,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -6026,7 +6062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -6049,7 +6085,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -6072,7 +6108,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -6095,7 +6131,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -6118,7 +6154,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -6141,7 +6177,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -6187,7 +6223,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -6210,7 +6246,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -6233,7 +6269,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -6256,7 +6292,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -6279,7 +6315,7 @@
         <v>1.50000015</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -6302,11 +6338,11 @@
         <v>1.5000003900000001</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>6.2</v>
       </c>
@@ -6329,7 +6365,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>6.1</v>
       </c>
@@ -6352,7 +6388,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -6375,7 +6411,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>5.9</v>
       </c>
@@ -6401,7 +6437,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>5.8</v>
       </c>
@@ -6427,7 +6463,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>5.7</v>
       </c>
@@ -6453,7 +6489,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>5.6</v>
       </c>
@@ -6479,7 +6515,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1">
+    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>5.5</v>
       </c>
@@ -6505,7 +6541,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1">
+    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>5.4</v>
       </c>
@@ -6531,7 +6567,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1">
+    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>5.2</v>
       </c>
@@ -6557,7 +6593,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1">
+    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>5</v>
       </c>
@@ -6583,7 +6619,7 @@
         <v>1.5000003</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1">
+    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
         <v>19</v>
       </c>
@@ -6597,7 +6633,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1">
+    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
         <v>17</v>
       </c>
@@ -6619,23 +6655,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6652,7 +6688,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -6675,7 +6711,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -6698,7 +6734,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+    <row r="5" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -6721,7 +6757,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+    <row r="6" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -6744,7 +6780,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -6767,7 +6803,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -6790,7 +6826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -6813,7 +6849,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
+    <row r="10" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -6836,7 +6872,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+    <row r="11" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -6859,7 +6895,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -6882,7 +6918,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -6905,7 +6941,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -6928,7 +6964,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -6951,7 +6987,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+    <row r="16" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -6974,7 +7010,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+    <row r="17" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -6997,7 +7033,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -7020,7 +7056,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+    <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -7043,7 +7079,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -7066,7 +7102,7 @@
         <v>1.5000005999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -7089,7 +7125,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -7112,7 +7148,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -7135,7 +7171,7 @@
         <v>1.5000004499999999</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -7158,7 +7194,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+    <row r="25" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -7181,7 +7217,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+    <row r="26" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -7204,7 +7240,7 @@
         <v>1.5000004499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+    <row r="27" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -7227,13 +7263,13 @@
         <v>1.4999998800000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="33" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="34" spans="1:7" ht="12.75" customHeight="1">
+    <row r="28" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>6.2</v>
       </c>
@@ -7256,7 +7292,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" customHeight="1">
+    <row r="35" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -7279,7 +7315,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" customHeight="1">
+    <row r="36" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>5.9</v>
       </c>
@@ -7302,7 +7338,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" customHeight="1">
+    <row r="37" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>5.8</v>
       </c>
@@ -7325,7 +7361,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" customHeight="1">
+    <row r="38" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>5.7</v>
       </c>
@@ -7348,7 +7384,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" customHeight="1">
+    <row r="39" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>5.6</v>
       </c>
@@ -7371,7 +7407,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" customHeight="1">
+    <row r="40" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>5.4</v>
       </c>
@@ -7394,7 +7430,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" customHeight="1">
+    <row r="41" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>5.2</v>
       </c>
@@ -7417,8 +7453,8 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1"/>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+    <row r="42" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E43" s="2">
         <v>2.5880352000000002</v>
       </c>
@@ -7426,7 +7462,7 @@
         <v>9.4119644999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+    <row r="44" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E44" s="2">
         <v>0.57511893333332997</v>
       </c>
@@ -7445,22 +7481,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="3.125" customWidth="1"/>
+    <col min="8" max="8" width="3.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7477,7 +7513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
@@ -7503,7 +7539,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -7529,7 +7565,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -7555,7 +7591,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>6.7</v>
       </c>
@@ -7581,7 +7617,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6.6</v>
       </c>
@@ -7607,7 +7643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6.5</v>
       </c>
@@ -7630,7 +7666,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>6.4</v>
       </c>
@@ -7653,7 +7689,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -7676,7 +7712,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>6.2</v>
       </c>
@@ -7699,7 +7735,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>6.1</v>
       </c>
@@ -7722,7 +7758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -7745,7 +7781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>5.9</v>
       </c>
@@ -7771,7 +7807,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>5.8</v>
       </c>
@@ -7797,7 +7833,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>5.7</v>
       </c>
@@ -7823,7 +7859,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>5.6</v>
       </c>
@@ -7849,7 +7885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>5.5</v>
       </c>
@@ -7875,7 +7911,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>5.4</v>
       </c>
@@ -7901,7 +7937,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1">
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>5.3</v>
       </c>
@@ -7927,7 +7963,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>5.2</v>
       </c>
@@ -7953,7 +7989,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -7979,7 +8015,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>5</v>
       </c>
@@ -8005,7 +8041,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -8031,7 +8067,7 @@
         <v>1.4999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1">
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>4.8</v>
       </c>
@@ -8057,7 +8093,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>4.7</v>
       </c>
@@ -8083,7 +8119,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1">
+    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>4.6000000000000103</v>
       </c>
@@ -8109,9 +8145,9 @@
         <v>1.4999992799999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1">
+    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>5</v>
       </c>
@@ -8137,7 +8173,7 @@
         <v>1.49999985</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1">
+    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>5.4</v>
       </c>
@@ -8163,7 +8199,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1">
+    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>5.6</v>
       </c>
@@ -8189,7 +8225,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1">
+    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>5.8</v>
       </c>
@@ -8215,7 +8251,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1">
+    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>6</v>
       </c>
@@ -8239,7 +8275,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1">
+    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>6.2</v>
       </c>
@@ -8262,7 +8298,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1">
+    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>6.4</v>
       </c>
@@ -8286,7 +8322,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1">
+    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
         <v>10</v>
       </c>
@@ -8297,7 +8333,7 @@
         <v>6.204777</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1">
+    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
         <v>17</v>
       </c>
@@ -8319,25 +8355,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="4.625" customWidth="1"/>
-    <col min="3" max="3" width="3.75" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="7.875" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="10" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="10" width="8.33203125" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="18" customHeight="1">
+    <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="3:9" ht="12.75" customHeight="1"/>
-    <row r="3" spans="3:9" ht="12.75" customHeight="1">
+    <row r="2" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -8354,7 +8390,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="3:9" ht="12.75" customHeight="1">
+    <row r="4" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2">
         <v>6.4</v>
       </c>
@@ -8377,7 +8413,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="3:9" ht="12.75" customHeight="1">
+    <row r="5" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2">
         <v>6.3</v>
       </c>
@@ -8400,7 +8436,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="12.75" customHeight="1">
+    <row r="6" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>6.2</v>
       </c>
@@ -8423,7 +8459,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="3:9" ht="12.75" customHeight="1">
+    <row r="7" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>6.1</v>
       </c>
@@ -8446,7 +8482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="3:9" ht="12.75" customHeight="1">
+    <row r="8" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1">
         <v>6</v>
       </c>
@@ -8469,7 +8505,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="3:9" ht="12.75" customHeight="1">
+    <row r="9" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>5.9</v>
       </c>
@@ -8492,7 +8528,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="10" spans="3:9" ht="12.75" customHeight="1">
+    <row r="10" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>5.8</v>
       </c>
@@ -8515,7 +8551,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="3:9" ht="12.75" customHeight="1">
+    <row r="11" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>5.7</v>
       </c>
@@ -8538,7 +8574,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="3:9" ht="12.75" customHeight="1">
+    <row r="12" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>5.6</v>
       </c>
@@ -8561,7 +8597,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="12.75" customHeight="1">
+    <row r="13" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>5.5</v>
       </c>
@@ -8584,7 +8620,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="12.75" customHeight="1">
+    <row r="14" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>5.4</v>
       </c>
@@ -8607,7 +8643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="12.75" customHeight="1">
+    <row r="15" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>5.3</v>
       </c>
@@ -8630,7 +8666,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="3:9" ht="12.75" customHeight="1">
+    <row r="16" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>5.2</v>
       </c>
@@ -8653,7 +8689,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="12.75" customHeight="1">
+    <row r="17" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -8676,7 +8712,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="12.75" customHeight="1">
+    <row r="18" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="1">
         <v>5</v>
       </c>
@@ -8699,7 +8735,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="12.75" customHeight="1">
+    <row r="19" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -8722,7 +8758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="12.75" customHeight="1">
+    <row r="20" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>4.8</v>
       </c>
@@ -8745,7 +8781,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="12.75" customHeight="1">
+    <row r="21" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>4.7</v>
       </c>
@@ -8768,7 +8804,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="12.75" customHeight="1">
+    <row r="22" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -8791,7 +8827,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="12.75" customHeight="1">
+    <row r="23" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G23" s="3">
         <v>14.83101795</v>
       </c>
@@ -8799,8 +8835,8 @@
         <v>13.668981</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="12.75" customHeight="1"/>
-    <row r="25" spans="3:11" ht="12.75" customHeight="1">
+    <row r="24" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H25" s="3" t="s">
         <v>26</v>
       </c>
@@ -8808,7 +8844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="12.75" customHeight="1">
+    <row r="26" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>6.2</v>
       </c>
@@ -8835,7 +8871,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="12.75" customHeight="1">
+    <row r="27" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="2">
         <v>5.8</v>
       </c>
@@ -8861,7 +8897,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="12.75" customHeight="1">
+    <row r="28" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="2">
         <v>5.6</v>
       </c>
@@ -8886,7 +8922,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="12.75" customHeight="1">
+    <row r="29" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="2">
         <v>5.4</v>
       </c>
@@ -8909,7 +8945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="12.75" customHeight="1">
+    <row r="30" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="2">
         <v>5.2</v>
       </c>
@@ -8934,7 +8970,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="12.75" customHeight="1">
+    <row r="31" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C31" s="2">
         <v>5.0999999999999996</v>
       </c>
@@ -8960,7 +8996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="12.75" customHeight="1">
+    <row r="32" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C32" s="1">
         <v>5</v>
       </c>
@@ -8987,7 +9023,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="3:11" ht="12.75" customHeight="1">
+    <row r="33" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C33" s="2">
         <v>4.9000000000000004</v>
       </c>
@@ -9013,7 +9049,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="12.75" customHeight="1">
+    <row r="34" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C34" s="2">
         <v>4.8</v>
       </c>
@@ -9040,7 +9076,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="12.75" customHeight="1">
+    <row r="35" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C35" s="2">
         <v>4.7</v>
       </c>
@@ -9066,7 +9102,7 @@
         <v>1.4999995500000001</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="12.75" customHeight="1">
+    <row r="36" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="2">
         <v>4.5999999999999996</v>
       </c>
@@ -9093,7 +9129,7 @@
         <v>1.4999994000000001</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="12.75" customHeight="1">
+    <row r="37" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G37" s="3">
         <v>6.0069694499999997</v>
       </c>
@@ -9101,7 +9137,7 @@
         <v>10.4930295</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="12.75" customHeight="1">
+    <row r="38" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G38" s="3">
         <v>1.3348821</v>
       </c>
@@ -9121,12 +9157,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
+  <eid>MzgzLjV8NjczMzIxLzI5NS9FbnRyeVBhcnQvMTcyNTY3NjA3MXw5NzMuNQ==</eid>
+  <version>1</version>
+  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
+</LabArchives>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9353,30 +9389,54 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
-  <eid>MzgzLjV8NjczMzIxLzI5NS9FbnRyeVBhcnQvMTcyNTY3NjA3MXw5NzMuNQ==</eid>
-  <version>1</version>
-  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
-</LabArchives>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997AD452-C286-4324-8925-255D1FB95202}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997AD452-C286-4324-8925-255D1FB95202}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD22D77-2F70-4156-9D23-E02D1827EDD6}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84982A03-914E-41F3-BBCB-383C57D717D0}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B88236-9E0C-45FB-91E8-9D984BC38B29}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84982A03-914E-41F3-BBCB-383C57D717D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD22D77-2F70-4156-9D23-E02D1827EDD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_mixing_tables_pH70_15C.xlsx
+++ b/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe & Mixing Table Printouts/pCa_mixing_tables_pH70_15C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinminton/Documents/GitHub/Protocols/Solution_recipes/pCa/pCa 15°C pH7.0 Recipe &amp; Mixing Table Printouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC726393-13FD-6543-AB02-DFFD5C5E2D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC99D50E-2AAD-A64A-8398-4929BCDADA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="6780" windowWidth="29080" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1420" yWindow="2700" windowWidth="29080" windowHeight="18440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mixing Chart " sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="35">
   <si>
     <t>Large Volume Mixing Chart (pH 7.0 and 15 degrees Celsius)</t>
   </si>
@@ -67,12 +67,6 @@
     <t>/3</t>
   </si>
   <si>
-    <t>/4</t>
-  </si>
-  <si>
-    <t>/5</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
   </si>
   <si>
     <t>vials 5ml</t>
-  </si>
-  <si>
-    <t>5ml vials</t>
   </si>
   <si>
     <t>pH 7.0</t>
@@ -135,6 +126,27 @@
   <si>
     <t>For 0.5ml of Each pCa</t>
   </si>
+  <si>
+    <t>Proportion 9.0</t>
+  </si>
+  <si>
+    <t>Proportion 4.5</t>
+  </si>
+  <si>
+    <t># of Vials</t>
+  </si>
+  <si>
+    <t>Amt of 9.0</t>
+  </si>
+  <si>
+    <t>Amt of 4.5</t>
+  </si>
+  <si>
+    <t>Amt 90+45</t>
+  </si>
+  <si>
+    <t>&lt;- *will differ depending on total amt of stock prepared</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -187,11 +199,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,6 +255,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -486,90 +544,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" customWidth="1"/>
-    <col min="11" max="14" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10">
-        <v>90</v>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="10">
-        <v>45</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>6.4</v>
       </c>
@@ -580,35 +610,24 @@
         <v>0.43833100000000003</v>
       </c>
       <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>25</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1.5</v>
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="12">
+        <f>H3*B3</f>
+        <v>25.275105</v>
       </c>
       <c r="G3" s="12">
-        <v>21.062587499999999</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12">
-        <v>7.0208624999999998</v>
-      </c>
-      <c r="J3" s="12">
-        <v>16.437412500000001</v>
-      </c>
-      <c r="K3" s="12">
-        <v>8.2187062500000003</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>H3*C3</f>
+        <v>19.724895</v>
+      </c>
+      <c r="H3" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
         <v>6.2</v>
       </c>
@@ -619,35 +638,24 @@
         <v>0.553983</v>
       </c>
       <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
         <v>30</v>
       </c>
-      <c r="F4" s="11">
-        <v>1.5</v>
+      <c r="E4" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="12">
+        <f>H4*B4</f>
+        <v>20.070765000000002</v>
       </c>
       <c r="G4" s="12">
-        <v>20.070765000000002</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12">
-        <v>6.6902549999999996</v>
-      </c>
-      <c r="J4" s="12">
+        <f>H4*C4</f>
         <v>24.929234999999998</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12">
-        <v>8.3097449999999995</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12">
+      <c r="H4" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>6.1</v>
       </c>
@@ -658,35 +666,24 @@
         <v>0.61035399999999995</v>
       </c>
       <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>25</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.5</v>
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="12">
+        <f>H5*B5</f>
+        <v>17.53407</v>
       </c>
       <c r="G5" s="12">
-        <v>14.611725</v>
+        <f>H5*C5</f>
+        <v>27.465929999999997</v>
       </c>
       <c r="H5" s="12">
-        <v>7.3058624999999999</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12">
-        <v>22.888275</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12">
-        <v>7.6294250000000003</v>
-      </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>6</v>
       </c>
@@ -697,35 +694,24 @@
         <v>0.66386699999999998</v>
       </c>
       <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
         <v>30</v>
       </c>
-      <c r="F6" s="11">
-        <v>1.5</v>
+      <c r="E6" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="12">
+        <f>H6*B6</f>
+        <v>15.125985</v>
       </c>
       <c r="G6" s="12">
-        <v>15.125985</v>
+        <f>H6*C6</f>
+        <v>29.874015</v>
       </c>
       <c r="H6" s="12">
-        <v>7.5629925</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12">
-        <v>29.874015</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12">
-        <v>9.958005</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>5.9</v>
       </c>
@@ -736,35 +722,24 @@
         <v>0.71343500000000004</v>
       </c>
       <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
         <v>30</v>
       </c>
-      <c r="F7" s="11">
-        <v>1.5</v>
+      <c r="E7" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="12">
+        <f>H7*B7</f>
+        <v>12.895425000000001</v>
       </c>
       <c r="G7" s="12">
-        <v>12.895424999999999</v>
+        <f>H7*C7</f>
+        <v>32.104575000000004</v>
       </c>
       <c r="H7" s="12">
-        <v>6.4477124999999997</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12">
-        <v>32.104574999999997</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12">
-        <v>8.0261437499999992</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>5.8</v>
       </c>
@@ -775,35 +750,24 @@
         <v>0.75833499999999998</v>
       </c>
       <c r="D8" s="10">
-        <v>1</v>
-      </c>
-      <c r="E8" s="10">
         <v>30</v>
       </c>
-      <c r="F8" s="11">
-        <v>1.5</v>
+      <c r="E8" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="12">
+        <f>H8*B8</f>
+        <v>10.874924999999999</v>
       </c>
       <c r="G8" s="12">
-        <v>10.874924999999999</v>
+        <f>H8*C8</f>
+        <v>34.125075000000002</v>
       </c>
       <c r="H8" s="12">
-        <v>5.4374624999999996</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12">
-        <v>34.125075000000002</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12">
-        <v>8.5312687500000006</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>5.7</v>
       </c>
@@ -814,33 +778,24 @@
         <v>0.79820899999999995</v>
       </c>
       <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
         <v>30</v>
       </c>
-      <c r="F9" s="11">
-        <v>1.5</v>
+      <c r="E9" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="12">
+        <f>H9*B9</f>
+        <v>9.0805950000000006</v>
       </c>
       <c r="G9" s="12">
-        <v>9.0805950000000006</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12">
+        <f>H9*C9</f>
         <v>35.919404999999998</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12">
-        <v>8.9798512499999994</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12">
+      <c r="H9" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11">
         <v>5.6</v>
       </c>
@@ -851,33 +806,24 @@
         <v>0.83302900000000002</v>
       </c>
       <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
         <v>30</v>
       </c>
-      <c r="F10" s="11">
-        <v>1.5</v>
+      <c r="E10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="12">
+        <f>H10*B10</f>
+        <v>7.5136950000000002</v>
       </c>
       <c r="G10" s="12">
-        <v>7.5136950000000002</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12">
+        <f>H10*C10</f>
         <v>37.486305000000002</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12">
-        <v>9.3715762500000004</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12">
+      <c r="H10" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>5.5</v>
       </c>
@@ -888,33 +834,24 @@
         <v>0.86302100000000004</v>
       </c>
       <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>15</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1.5</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="12">
+        <f>H11*B11</f>
+        <v>6.1640549999999994</v>
       </c>
       <c r="G11" s="12">
-        <v>3.0820275000000001</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
-        <v>19.417972500000001</v>
-      </c>
-      <c r="K11" s="12">
-        <v>9.7089862500000006</v>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>H11*C11</f>
+        <v>38.835945000000002</v>
+      </c>
+      <c r="H11" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11">
         <v>5.4</v>
       </c>
@@ -925,33 +862,24 @@
         <v>0.88858700000000002</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="11">
-        <v>1.5</v>
+      <c r="E12" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F12" s="12">
+        <f>H12*B12</f>
+        <v>5.013585</v>
       </c>
       <c r="G12" s="12">
-        <v>5.013585</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+        <f>H12*C12</f>
         <v>39.986415000000001</v>
       </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12">
-        <v>9.9966037500000002</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12">
+      <c r="H12" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>5.2</v>
       </c>
@@ -962,33 +890,24 @@
         <v>0.928485</v>
       </c>
       <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
         <v>30</v>
       </c>
-      <c r="F13" s="11">
-        <v>1.5</v>
+      <c r="E13" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="12">
+        <f>H13*B13</f>
+        <v>3.2181749999999996</v>
       </c>
       <c r="G13" s="12">
-        <v>3.218175</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12">
+        <f>H13*C13</f>
         <v>41.781824999999998</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12">
-        <v>8.3563650000000003</v>
-      </c>
-      <c r="O13" s="12">
+      <c r="H13" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>5</v>
       </c>
@@ -999,101 +918,74 @@
         <v>0.95696499999999995</v>
       </c>
       <c r="D14" s="10">
-        <v>1.0000004</v>
-      </c>
-      <c r="E14" s="10">
         <v>30</v>
       </c>
-      <c r="F14" s="11">
-        <v>1.5</v>
+      <c r="E14" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="12">
+        <f>H14*B14</f>
+        <v>1.9365937746371999</v>
       </c>
       <c r="G14" s="12">
-        <v>1.936593</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12">
-        <v>43.063425000000002</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12">
-        <v>8.6126850000000008</v>
-      </c>
-      <c r="O14" s="12">
+        <f>H14*C14</f>
+        <v>43.063442225369997</v>
+      </c>
+      <c r="H14" s="12">
         <v>45.000017999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F15" s="9" t="s">
+    <row r="15" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="13">
+        <f>SUM(F3:F14)</f>
+        <v>134.70297377463723</v>
+      </c>
+      <c r="G15" s="13">
+        <v>378.013935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="13">
+        <f>250-F15</f>
+        <v>115.29702622536277</v>
+      </c>
+      <c r="G16" s="13">
+        <f>500-G15</f>
+        <v>121.986065</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="13">
-        <v>124.48608299999999</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="13">
-        <v>378.013935</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="13">
-        <v>125.51391700000001</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="13">
-        <v>121.986065</v>
-      </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F17" s="9" t="s">
-        <v>12</v>
+      <c r="F17" s="10">
+        <f>F16/5</f>
+        <v>23.059405245072554</v>
       </c>
       <c r="G17" s="10">
-        <v>27.891981555555599</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="10">
-        <v>27.1080144444444</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G20" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="6:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G23" s="11">
-        <v>124.48608299999999</v>
-      </c>
-      <c r="J23" s="12">
-        <v>378.013935</v>
-      </c>
-    </row>
+        <f>G16/5</f>
+        <v>24.397213000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="5:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1117,12 +1009,12 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1489,7 +1381,7 @@
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5">
         <v>5.6528453399999998</v>
@@ -1524,12 +1416,12 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2188,7 +2080,7 @@
     <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2220,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
         <v>5</v>
@@ -2874,7 +2766,7 @@
         <v>1.5</v>
       </c>
       <c r="P14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q14" s="4">
         <v>116.10636</v>
@@ -2906,7 +2798,7 @@
         <v>1.5</v>
       </c>
       <c r="P15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="4">
         <v>133.89364</v>
@@ -2938,7 +2830,7 @@
         <v>1.5</v>
       </c>
       <c r="P16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="4">
         <v>44.631213333333299</v>
@@ -3226,7 +3118,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4024,7 +3916,7 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2">
         <v>5.2223670000000002</v>
@@ -4038,7 +3930,7 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
         <v>1.09713592436975</v>
@@ -4072,7 +3964,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4849,7 +4741,7 @@
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2">
         <v>2.3495370000000002</v>
@@ -4863,7 +4755,7 @@
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>0.49360021008402999</v>
@@ -4896,7 +4788,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5695,7 +5587,7 @@
     </row>
     <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2">
         <v>2.3913634500000001</v>
@@ -5709,7 +5601,7 @@
     </row>
     <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>0.50238727941175998</v>
@@ -5743,7 +5635,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6621,7 +6513,7 @@
     </row>
     <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D43" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2">
         <v>3.6457514999999998</v>
@@ -6635,7 +6527,7 @@
     </row>
     <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
         <v>0.76591418067227002</v>
@@ -6668,7 +6560,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7493,7 +7385,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8324,7 +8216,7 @@
     </row>
     <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="8">
         <v>2.795223</v>
@@ -8335,7 +8227,7 @@
     </row>
     <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
         <v>0.62116066666667002</v>
@@ -8369,7 +8261,7 @@
   <sheetData>
     <row r="1" spans="3:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8838,10 +8730,10 @@
     <row r="24" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H25" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9157,12 +9049,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
-  <eid>MzgzLjV8NjczMzIxLzI5NS9FbnRyeVBhcnQvMTcyNTY3NjA3MXw5NzMuNQ==</eid>
-  <version>1</version>
-  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
-</LabArchives>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9389,12 +9281,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LabArchives xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <BaseUri>https://mynotebook.labarchives.com</BaseUri>
+  <eid>MzgzLjV8NjczMzIxLzI5NS9FbnRyeVBhcnQvMTcyNTY3NjA3MXw5NzMuNQ==</eid>
+  <version>1</version>
+  <updated-at>2022-02-15T10:48:35-05:00</updated-at>
+</LabArchives>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9407,9 +9299,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B88236-9E0C-45FB-91E8-9D984BC38B29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD22D77-2F70-4156-9D23-E02D1827EDD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9434,9 +9326,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD22D77-2F70-4156-9D23-E02D1827EDD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B88236-9E0C-45FB-91E8-9D984BC38B29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>